--- a/data/vertiport_UE.xlsx
+++ b/data/vertiport_UE.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AISIMULATOR2\Desktop\Code\odt_mp\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95334C3-4B58-4BAA-B3AF-3495E2317498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
-    <sheet r:id="rId2" sheetId="2" name="vertiport"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="vertiport" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="103">
   <si>
     <t>상세 위치</t>
   </si>
@@ -302,29 +308,50 @@
     <t>angle</t>
   </si>
   <si>
-    <t>이름</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시청 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>영등포</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>사당</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상암</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>연신내</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>가산</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>천호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>수서</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="#,##0.0000000"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -343,12 +370,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFff0000"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,12 +398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFd1d1d1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFD1D1D1"/>
       </patternFill>
     </fill>
   </fills>
@@ -383,16 +419,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -400,110 +436,74 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -514,10 +514,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -555,71 +555,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -647,7 +647,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -670,11 +670,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -683,13 +683,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -699,7 +699,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -708,7 +708,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -717,7 +717,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -725,10 +725,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -793,787 +793,516 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="11" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="28" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="29" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="28" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="28" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="28" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="30" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="31" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="31" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="31" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
+    </row>
+    <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19">
-        <v>37.526513</v>
-      </c>
-      <c r="D2" s="19">
+      <c r="C2" s="13">
+        <v>37.526513000000001</v>
+      </c>
+      <c r="D2" s="13">
         <v>126.922845</v>
       </c>
-      <c r="E2" s="19">
-        <v>-491120.024651</v>
-      </c>
-      <c r="F2" s="19">
-        <v>446376.523064</v>
-      </c>
-      <c r="G2" s="19">
-        <v>1478.265884</v>
-      </c>
-      <c r="H2" s="20">
+      <c r="E2" s="13">
+        <v>-491120.02465099999</v>
+      </c>
+      <c r="F2" s="13">
+        <v>446376.52306400001</v>
+      </c>
+      <c r="G2" s="13">
+        <v>1478.2658839999999</v>
+      </c>
+      <c r="H2" s="14">
         <v>322</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L2" s="4">
-        <v>37.566831</v>
-      </c>
-      <c r="M2" s="4">
-        <v>126.978445</v>
-      </c>
-      <c r="N2" s="21">
-        <v>217063.379391</v>
-      </c>
-      <c r="O2" s="21">
-        <v>-1013419.868553</v>
-      </c>
-      <c r="P2" s="21">
-        <v>-220649.796452</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
-      <c r="A3" s="22" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="19">
-        <v>37.515071</v>
-      </c>
-      <c r="D3" s="19">
-        <v>127.068942</v>
-      </c>
-      <c r="E3" s="19">
-        <v>803170.089363</v>
-      </c>
-      <c r="F3" s="19">
-        <v>594483.67286</v>
-      </c>
-      <c r="G3" s="19">
+      <c r="C3" s="13">
+        <v>37.515070999999999</v>
+      </c>
+      <c r="D3" s="13">
+        <v>127.06894200000001</v>
+      </c>
+      <c r="E3" s="13">
+        <v>803170.08936300001</v>
+      </c>
+      <c r="F3" s="13">
+        <v>594483.67286000005</v>
+      </c>
+      <c r="G3" s="13">
         <v>3.717009</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="14">
         <v>83</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
-      <c r="A4" s="22" t="s">
-        <v>40</v>
+    </row>
+    <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="19">
-        <v>37.562282</v>
-      </c>
-      <c r="D4" s="19">
+      <c r="C4" s="13">
+        <v>37.562282000000003</v>
+      </c>
+      <c r="D4" s="13">
         <v>126.890156</v>
       </c>
-      <c r="E4" s="19">
-        <v>-779935.159666</v>
-      </c>
-      <c r="F4" s="19">
-        <v>49335.402179</v>
-      </c>
-      <c r="G4" s="19">
-        <v>1672.324385</v>
-      </c>
-      <c r="H4" s="20">
+      <c r="E4" s="13">
+        <v>-779935.15966600005</v>
+      </c>
+      <c r="F4" s="13">
+        <v>49335.402178999997</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1672.3243849999999</v>
+      </c>
+      <c r="H4" s="14">
         <v>38</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
+    </row>
+    <row r="5" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="19">
-        <v>37.529096</v>
-      </c>
-      <c r="D5" s="19">
-        <v>126.958391</v>
-      </c>
-      <c r="E5" s="19">
-        <v>-176846.841058</v>
-      </c>
-      <c r="F5" s="19">
-        <v>417842.779151</v>
-      </c>
-      <c r="G5" s="19">
-        <v>1031.574659</v>
-      </c>
-      <c r="H5" s="20">
+      <c r="C5" s="13">
+        <v>37.529096000000003</v>
+      </c>
+      <c r="D5" s="13">
+        <v>126.95839100000001</v>
+      </c>
+      <c r="E5" s="13">
+        <v>-176846.84105799999</v>
+      </c>
+      <c r="F5" s="13">
+        <v>417842.77915100002</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1031.5746590000001</v>
+      </c>
+      <c r="H5" s="14">
         <v>76</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
-      <c r="A6" s="22" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="19">
-        <v>37.526343</v>
-      </c>
-      <c r="D6" s="19">
+      <c r="C6" s="13">
+        <v>37.526342999999997</v>
+      </c>
+      <c r="D6" s="13">
         <v>126.876243</v>
       </c>
-      <c r="E6" s="19">
-        <v>-903093.204367</v>
-      </c>
-      <c r="F6" s="19">
-        <v>447873.974944</v>
-      </c>
-      <c r="G6" s="19">
-        <v>653.490914</v>
-      </c>
-      <c r="H6" s="20">
+      <c r="E6" s="13">
+        <v>-903093.20436700003</v>
+      </c>
+      <c r="F6" s="13">
+        <v>447873.97494400002</v>
+      </c>
+      <c r="G6" s="13">
+        <v>653.49091399999998</v>
+      </c>
+      <c r="H6" s="14">
         <v>10</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
-      <c r="A7" s="22" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="19">
-        <v>37.630207</v>
-      </c>
-      <c r="D7" s="19">
+      <c r="C7" s="13">
+        <v>37.630206999999999</v>
+      </c>
+      <c r="D7" s="13">
         <v>127.026053</v>
       </c>
-      <c r="E7" s="19">
-        <v>420348.378549</v>
-      </c>
-      <c r="F7" s="19">
+      <c r="E7" s="13">
+        <v>420348.37854900002</v>
+      </c>
+      <c r="F7" s="13">
         <v>-704168.226562</v>
       </c>
-      <c r="G7" s="19">
-        <v>2413.380911</v>
-      </c>
-      <c r="H7" s="20">
+      <c r="G7" s="13">
+        <v>2413.3809110000002</v>
+      </c>
+      <c r="H7" s="14">
         <v>74</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
+    </row>
+    <row r="8" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="19">
-        <v>37.482832</v>
-      </c>
-      <c r="D8" s="19">
+      <c r="C8" s="13">
+        <v>37.482832000000002</v>
+      </c>
+      <c r="D8" s="13">
         <v>126.942245</v>
       </c>
-      <c r="E8" s="19">
-        <v>-319471.744531</v>
-      </c>
-      <c r="F8" s="19">
+      <c r="E8" s="13">
+        <v>-319471.74453099997</v>
+      </c>
+      <c r="F8" s="13">
         <v>930948.288114</v>
       </c>
-      <c r="G8" s="19">
-        <v>2763.713596</v>
-      </c>
-      <c r="H8" s="20">
+      <c r="G8" s="13">
+        <v>2763.7135960000001</v>
+      </c>
+      <c r="H8" s="14">
         <v>8</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
-      <c r="A9" s="22" t="s">
-        <v>57</v>
+    </row>
+    <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="19">
-        <v>37.475767</v>
-      </c>
-      <c r="D9" s="19">
+      <c r="C9" s="13">
+        <v>37.475766999999998</v>
+      </c>
+      <c r="D9" s="13">
         <v>126.982185</v>
       </c>
-      <c r="E9" s="19">
-        <v>33925.257669</v>
-      </c>
-      <c r="F9" s="19">
+      <c r="E9" s="13">
+        <v>33925.257668999999</v>
+      </c>
+      <c r="F9" s="13">
         <v>1009330.884492</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="13">
         <v>2053.892018</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="14">
         <v>10</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
-      <c r="A10" s="22" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="19">
-        <v>37.538917</v>
-      </c>
-      <c r="D10" s="19">
+      <c r="C10" s="13">
+        <v>37.538916999999998</v>
+      </c>
+      <c r="D10" s="13">
         <v>127.041635</v>
       </c>
-      <c r="E10" s="19">
-        <v>559059.977497</v>
-      </c>
-      <c r="F10" s="19">
-        <v>308579.620781</v>
-      </c>
-      <c r="G10" s="19">
-        <v>1169.264025</v>
-      </c>
-      <c r="H10" s="20">
+      <c r="E10" s="13">
+        <v>559059.97749700001</v>
+      </c>
+      <c r="F10" s="13">
+        <v>308579.62078100001</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1169.2640249999999</v>
+      </c>
+      <c r="H10" s="14">
         <v>295</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
-      <c r="A11" s="1" t="s">
-        <v>66</v>
+    </row>
+    <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="13">
         <v>37.611145</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="13">
         <v>126.922747</v>
       </c>
-      <c r="E11" s="19">
-        <v>-491854.735333</v>
-      </c>
-      <c r="F11" s="19">
-        <v>-492565.473096</v>
-      </c>
-      <c r="G11" s="19">
-        <v>1383.90646</v>
-      </c>
-      <c r="H11" s="20">
+      <c r="E11" s="13">
+        <v>-491854.73533300002</v>
+      </c>
+      <c r="F11" s="13">
+        <v>-492565.47309599997</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1383.9064599999999</v>
+      </c>
+      <c r="H11" s="14">
         <v>43</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
-      <c r="A12" s="22" t="s">
-        <v>71</v>
+    </row>
+    <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="19">
-        <v>37.545733</v>
-      </c>
-      <c r="D12" s="19">
+      <c r="C12" s="13">
+        <v>37.545732999999998</v>
+      </c>
+      <c r="D12" s="13">
         <v>127.11923</v>
       </c>
-      <c r="E12" s="19">
-        <v>1245011.479343</v>
-      </c>
-      <c r="F12" s="19">
-        <v>231914.250886</v>
-      </c>
-      <c r="G12" s="19">
+      <c r="E12" s="13">
+        <v>1245011.4793430001</v>
+      </c>
+      <c r="F12" s="13">
+        <v>231914.25088599999</v>
+      </c>
+      <c r="G12" s="13">
         <v>-476.082537</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="14">
         <v>110</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
-      <c r="A13" s="22" t="s">
+    </row>
+    <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="19">
-        <v>37.56901</v>
-      </c>
-      <c r="D13" s="19">
-        <v>126.973604</v>
-      </c>
-      <c r="E13" s="19">
-        <v>-42547.355362</v>
-      </c>
-      <c r="F13" s="19">
-        <v>-24939.579852</v>
-      </c>
-      <c r="G13" s="19">
-        <v>3138.119307</v>
-      </c>
-      <c r="H13" s="20">
+      <c r="C13" s="13">
+        <v>37.569009999999999</v>
+      </c>
+      <c r="D13" s="13">
+        <v>126.97360399999999</v>
+      </c>
+      <c r="E13" s="13">
+        <v>-42547.355362000002</v>
+      </c>
+      <c r="F13" s="13">
+        <v>-24939.579851999999</v>
+      </c>
+      <c r="G13" s="13">
+        <v>3138.1193069999999</v>
+      </c>
+      <c r="H13" s="14">
         <v>130</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21">
-      <c r="A14" s="22" t="s">
+    </row>
+    <row r="14" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="19">
-        <v>37.496291</v>
-      </c>
-      <c r="D14" s="19">
+      <c r="C14" s="13">
+        <v>37.496290999999999</v>
+      </c>
+      <c r="D14" s="13">
         <v>127.023303</v>
       </c>
-      <c r="E14" s="19">
-        <v>397488.3555264</v>
-      </c>
-      <c r="F14" s="19">
+      <c r="E14" s="13">
+        <v>397488.35552639997</v>
+      </c>
+      <c r="F14" s="13">
         <v>781533.8556602</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="13">
         <v>1247.242888</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="14">
         <v>69</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21">
-      <c r="A15" s="22" t="s">
-        <v>79</v>
+    </row>
+    <row r="15" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="19">
-        <v>37.489091</v>
-      </c>
-      <c r="D15" s="19">
+      <c r="C15" s="13">
+        <v>37.489091000000002</v>
+      </c>
+      <c r="D15" s="13">
         <v>126.878809</v>
       </c>
-      <c r="E15" s="19">
-        <v>-880579.173498</v>
-      </c>
-      <c r="F15" s="19">
-        <v>861087.684331</v>
-      </c>
-      <c r="G15" s="19">
-        <v>836.729597</v>
-      </c>
-      <c r="H15" s="20">
+      <c r="E15" s="13">
+        <v>-880579.17349800002</v>
+      </c>
+      <c r="F15" s="13">
+        <v>861087.68433099997</v>
+      </c>
+      <c r="G15" s="13">
+        <v>836.72959700000001</v>
+      </c>
+      <c r="H15" s="14">
         <v>87</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21">
-      <c r="A16" s="22" t="s">
+    </row>
+    <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
         <v>83</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="19">
-        <v>37.563535</v>
-      </c>
-      <c r="D16" s="19">
+      <c r="C16" s="13">
+        <v>37.563535000000002</v>
+      </c>
+      <c r="D16" s="13">
         <v>126.791805</v>
       </c>
-      <c r="E16" s="19">
-        <v>-1648867.7710023</v>
-      </c>
-      <c r="F16" s="19">
-        <v>33919.2351648</v>
-      </c>
-      <c r="G16" s="19">
-        <v>-356.336889</v>
-      </c>
-      <c r="H16" s="20">
+      <c r="E16" s="13">
+        <v>-1648867.7710023001</v>
+      </c>
+      <c r="F16" s="13">
+        <v>33919.235164799997</v>
+      </c>
+      <c r="G16" s="13">
+        <v>-356.33688899999999</v>
+      </c>
+      <c r="H16" s="14">
         <v>45</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21">
-      <c r="A17" s="22" t="s">
+    </row>
+    <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="13">
         <v>37.596919</v>
       </c>
-      <c r="D17" s="19">
-        <v>127.084854</v>
-      </c>
-      <c r="E17" s="19">
-        <v>940150.761193</v>
-      </c>
-      <c r="F17" s="19">
-        <v>-335411.26384</v>
-      </c>
-      <c r="G17" s="19">
-        <v>273.245591</v>
-      </c>
-      <c r="H17" s="20">
+      <c r="D17" s="13">
+        <v>127.08485400000001</v>
+      </c>
+      <c r="E17" s="13">
+        <v>940150.76119300001</v>
+      </c>
+      <c r="F17" s="13">
+        <v>-335411.26384000003</v>
+      </c>
+      <c r="G17" s="13">
+        <v>273.24559099999999</v>
+      </c>
+      <c r="H17" s="14">
         <v>344</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21.75">
-      <c r="A18" s="1" t="s">
-        <v>90</v>
+    </row>
+    <row r="18" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="19">
-        <v>37.487441</v>
-      </c>
-      <c r="D18" s="19">
-        <v>127.100603</v>
-      </c>
-      <c r="E18" s="19">
-        <v>1081548.939991</v>
-      </c>
-      <c r="F18" s="19">
-        <v>878810.555958</v>
-      </c>
-      <c r="G18" s="19">
-        <v>992.15795</v>
-      </c>
-      <c r="H18" s="20">
+      <c r="C18" s="13">
+        <v>37.487440999999997</v>
+      </c>
+      <c r="D18" s="13">
+        <v>127.10060300000001</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1081548.9399910001</v>
+      </c>
+      <c r="F18" s="13">
+        <v>878810.55595800001</v>
+      </c>
+      <c r="G18" s="13">
+        <v>992.15795000000003</v>
+      </c>
+      <c r="H18" s="14">
         <v>222</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="19" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1581,34 +1310,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="8" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="22" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="13.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="13.625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1679,7 +1394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -1690,16 +1405,16 @@
         <v>25</v>
       </c>
       <c r="D2" s="4">
-        <v>37.526513</v>
+        <v>37.526513000000001</v>
       </c>
       <c r="E2" s="4">
         <v>126.922845</v>
       </c>
       <c r="F2" s="4">
-        <v>-4.87592124</v>
+        <v>-4.8759212400000003</v>
       </c>
       <c r="G2" s="4">
-        <v>-4.47016592</v>
+        <v>-4.4701659200000003</v>
       </c>
       <c r="H2" s="4">
         <v>1.4</v>
@@ -1731,8 +1446,6 @@
       <c r="Q2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
       <c r="T2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1740,13 +1453,13 @@
         <v>1.4</v>
       </c>
       <c r="V2" s="4">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="W2" s="4">
         <v>2.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -1757,16 +1470,16 @@
         <v>25</v>
       </c>
       <c r="D3" s="4">
-        <v>37.515249</v>
+        <v>37.515248999999997</v>
       </c>
       <c r="E3" s="4">
-        <v>127.073569</v>
+        <v>127.07356900000001</v>
       </c>
       <c r="F3" s="4">
-        <v>8.37874732</v>
+        <v>8.3787473200000004</v>
       </c>
       <c r="G3" s="4">
-        <v>-5.7240744</v>
+        <v>-5.7240744000000001</v>
       </c>
       <c r="H3" s="5">
         <v>1</v>
@@ -1798,8 +1511,6 @@
       <c r="Q3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
       <c r="T3" s="1" t="s">
         <v>38</v>
       </c>
@@ -1813,7 +1524,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -1824,13 +1535,13 @@
         <v>25</v>
       </c>
       <c r="D4" s="4">
-        <v>37.565692</v>
+        <v>37.565691999999999</v>
       </c>
       <c r="E4" s="4">
-        <v>126.894449</v>
+        <v>126.89444899999999</v>
       </c>
       <c r="F4" s="4">
-        <v>-7.37306548</v>
+        <v>-7.3730654800000002</v>
       </c>
       <c r="G4" s="4">
         <v>-0.10875964</v>
@@ -1865,14 +1576,8 @@
       <c r="Q4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    </row>
+    <row r="5" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1883,16 +1588,16 @@
         <v>25</v>
       </c>
       <c r="D5" s="4">
-        <v>37.529096</v>
+        <v>37.529096000000003</v>
       </c>
       <c r="E5" s="4">
-        <v>126.958391</v>
+        <v>126.95839100000001</v>
       </c>
       <c r="F5" s="4">
         <v>-1.750006</v>
       </c>
       <c r="G5" s="4">
-        <v>-4.18262636</v>
+        <v>-4.1826263600000004</v>
       </c>
       <c r="H5" s="4">
         <v>1.4</v>
@@ -1924,14 +1629,8 @@
       <c r="Q5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    </row>
+    <row r="6" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -1942,16 +1641,16 @@
         <v>25</v>
       </c>
       <c r="D6" s="4">
-        <v>37.52672</v>
+        <v>37.526719999999997</v>
       </c>
       <c r="E6" s="4">
-        <v>126.876692</v>
+        <v>126.87669200000001</v>
       </c>
       <c r="F6" s="4">
-        <v>-8.93461606</v>
+        <v>-8.9346160599999997</v>
       </c>
       <c r="G6" s="4">
-        <v>-4.44712268</v>
+        <v>-4.4471226799999997</v>
       </c>
       <c r="H6" s="5">
         <v>1</v>
@@ -1983,14 +1682,8 @@
       <c r="Q6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    </row>
+    <row r="7" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -2001,16 +1694,16 @@
         <v>25</v>
       </c>
       <c r="D7" s="4">
-        <v>37.630324</v>
+        <v>37.630324000000002</v>
       </c>
       <c r="E7" s="4">
-        <v>127.0327</v>
+        <v>127.03270000000001</v>
       </c>
       <c r="F7" s="4">
         <v>4.78472746</v>
       </c>
       <c r="G7" s="4">
-        <v>7.0860746</v>
+        <v>7.0860745999999999</v>
       </c>
       <c r="H7" s="4">
         <v>1.4</v>
@@ -2042,14 +1735,8 @@
       <c r="Q7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    </row>
+    <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>53</v>
       </c>
@@ -2063,13 +1750,13 @@
         <v>37.482481</v>
       </c>
       <c r="E8" s="4">
-        <v>126.941657</v>
+        <v>126.94165700000001</v>
       </c>
       <c r="F8" s="4">
-        <v>-3.22159396</v>
+        <v>-3.2215939599999999</v>
       </c>
       <c r="G8" s="4">
-        <v>-9.37180816</v>
+        <v>-9.3718081600000005</v>
       </c>
       <c r="H8" s="4">
         <v>1.4</v>
@@ -2101,14 +1788,8 @@
       <c r="Q8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    </row>
+    <row r="9" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
@@ -2119,13 +1800,13 @@
         <v>25</v>
       </c>
       <c r="D9" s="4">
-        <v>37.476727</v>
+        <v>37.476726999999997</v>
       </c>
       <c r="E9" s="4">
-        <v>126.981636</v>
+        <v>126.98163599999999</v>
       </c>
       <c r="F9" s="4">
-        <v>0.2941593</v>
+        <v>0.29415930000000001</v>
       </c>
       <c r="G9" s="4">
         <v>-10.01234344</v>
@@ -2160,14 +1841,8 @@
       <c r="Q9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    </row>
+    <row r="10" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
@@ -2178,7 +1853,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="4">
-        <v>37.538917</v>
+        <v>37.538916999999998</v>
       </c>
       <c r="E10" s="4">
         <v>127.041635</v>
@@ -2219,14 +1894,8 @@
       <c r="Q10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    </row>
+    <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>65</v>
       </c>
@@ -2237,7 +1906,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="4">
-        <v>37.607928</v>
+        <v>37.607928000000001</v>
       </c>
       <c r="E11" s="4">
         <v>126.933189</v>
@@ -2246,7 +1915,7 @@
         <v>-3.96626988</v>
       </c>
       <c r="G11" s="4">
-        <v>4.59295188</v>
+        <v>4.5929518800000002</v>
       </c>
       <c r="H11" s="4">
         <v>1.4</v>
@@ -2278,14 +1947,8 @@
       <c r="Q11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    </row>
+    <row r="12" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>70</v>
       </c>
@@ -2296,16 +1959,16 @@
         <v>25</v>
       </c>
       <c r="D12" s="4">
-        <v>37.544717</v>
+        <v>37.544716999999999</v>
       </c>
       <c r="E12" s="4">
         <v>127.121866</v>
       </c>
       <c r="F12" s="4">
-        <v>12.6259855</v>
+        <v>12.625985500000001</v>
       </c>
       <c r="G12" s="4">
-        <v>-2.44369664</v>
+        <v>-2.4436966400000002</v>
       </c>
       <c r="H12" s="4">
         <v>1.4</v>
@@ -2337,14 +2000,8 @@
       <c r="Q12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    </row>
+    <row r="13" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>73</v>
       </c>
@@ -2355,7 +2012,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="4">
-        <v>37.569877</v>
+        <v>37.569876999999998</v>
       </c>
       <c r="E13" s="4">
         <v>126.976185</v>
@@ -2364,7 +2021,7 @@
         <v>-0.18520164</v>
       </c>
       <c r="G13" s="4">
-        <v>0.35711456</v>
+        <v>0.35711456000000003</v>
       </c>
       <c r="H13" s="4">
         <v>1.4</v>
@@ -2396,14 +2053,8 @@
       <c r="Q13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    </row>
+    <row r="14" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>74</v>
       </c>
@@ -2414,16 +2065,16 @@
         <v>38</v>
       </c>
       <c r="D14" s="4">
-        <v>37.49793</v>
+        <v>37.497929999999997</v>
       </c>
       <c r="E14" s="4">
         <v>127.027602</v>
       </c>
       <c r="F14" s="4">
-        <v>4.33640934</v>
+        <v>4.3364093400000003</v>
       </c>
       <c r="G14" s="4">
-        <v>-7.65202548</v>
+        <v>-7.6520254799999998</v>
       </c>
       <c r="H14" s="4">
         <v>1.4</v>
@@ -2455,14 +2106,8 @@
       <c r="Q14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    </row>
+    <row r="15" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>78</v>
       </c>
@@ -2473,7 +2118,7 @@
         <v>38</v>
       </c>
       <c r="D15" s="4">
-        <v>37.489091</v>
+        <v>37.489091000000002</v>
       </c>
       <c r="E15" s="4">
         <v>126.878809</v>
@@ -2482,7 +2127,7 @@
         <v>-8.74844708</v>
       </c>
       <c r="G15" s="4">
-        <v>-8.63598296</v>
+        <v>-8.6359829599999998</v>
       </c>
       <c r="H15" s="4">
         <v>1.4</v>
@@ -2514,14 +2159,8 @@
       <c r="Q15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    </row>
+    <row r="16" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>82</v>
       </c>
@@ -2532,7 +2171,7 @@
         <v>38</v>
       </c>
       <c r="D16" s="4">
-        <v>37.563535</v>
+        <v>37.563535000000002</v>
       </c>
       <c r="E16" s="4">
         <v>126.791805</v>
@@ -2573,14 +2212,8 @@
       <c r="Q16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    </row>
+    <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>85</v>
       </c>
@@ -2594,13 +2227,13 @@
         <v>37.596919</v>
       </c>
       <c r="E17" s="4">
-        <v>127.084854</v>
+        <v>127.08485400000001</v>
       </c>
       <c r="F17" s="4">
-        <v>9.37115022</v>
+        <v>9.3711502200000005</v>
       </c>
       <c r="G17" s="4">
-        <v>3.36743</v>
+        <v>3.3674300000000001</v>
       </c>
       <c r="H17" s="4">
         <v>1.4</v>
@@ -2632,14 +2265,8 @@
       <c r="Q17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    </row>
+    <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>89</v>
       </c>
@@ -2656,10 +2283,10 @@
         <v>127.101302</v>
       </c>
       <c r="F18" s="4">
-        <v>10.81758734</v>
+        <v>10.817587339999999</v>
       </c>
       <c r="G18" s="4">
-        <v>-8.7981762</v>
+        <v>-8.7981762000000003</v>
       </c>
       <c r="H18" s="4">
         <v>1.4</v>
@@ -2691,14 +2318,9 @@
       <c r="Q18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>